--- a/22.xlsx
+++ b/22.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\autowork\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5041C118-9578-43EB-8E82-EDE49D0F4F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="传输局" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="传输局" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>2019-04-26</t>
   </si>
@@ -83,39 +89,114 @@
     <t>2019092501</t>
   </si>
   <si>
-    <t>2019-09-25</t>
-  </si>
-  <si>
     <t>测试可以输入多少个字，一二三四五六工八九十</t>
   </si>
   <si>
     <t>张兆祥</t>
+  </si>
+  <si>
+    <t>201063501</t>
+  </si>
+  <si>
+    <t>201-06-35</t>
+  </si>
+  <si>
+    <t>日期错误</t>
+  </si>
+  <si>
+    <t>日期为201</t>
+  </si>
+  <si>
+    <t>ssdfs</t>
+  </si>
+  <si>
+    <t>2019102602</t>
+  </si>
+  <si>
+    <t>1111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>ssssss</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2019102603</t>
+  </si>
+  <si>
+    <t>sssssssss</t>
+  </si>
+  <si>
+    <t>sddd</t>
+  </si>
+  <si>
+    <t>22:18</t>
+  </si>
+  <si>
+    <t>2019102604</t>
+  </si>
+  <si>
+    <t>66666s</t>
+  </si>
+  <si>
+    <t>ddd5</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派障人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派障时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -131,15 +212,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,20 +496,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -440,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -451,7 +538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -462,7 +549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -473,7 +560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -487,7 +574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -502,31 +589,55 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="B2" s="1">
+        <v>43764</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -535,21 +646,102 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1">
+        <v>43733</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>